--- a/Base/Teams/Broncos/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Broncos/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>6</v>

--- a/Base/Teams/Broncos/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Broncos/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Broncos/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Broncos/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Broncos/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>4</v>
